--- a/Translation/chatlogHM_translated.xlsx
+++ b/Translation/chatlogHM_translated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,21 +441,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Certainly! The word "body" is already in English. If you meant to translate it from another language, please provide the text in that language.</t>
+          <t>Body</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>40% off</t>
+          <t>40% discount</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I estimated it to be 40%.</t>
+          <t>I guessed it was 40%.</t>
         </is>
       </c>
     </row>
@@ -469,35 +469,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I think it's relatively high. Around 80-90.</t>
+          <t>I think it's relatively high. About 80-90.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I don't know the area at all.</t>
+          <t>I have no sense of the area at all, so I don't understand.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>In the second half, I thought it seemed quite AI-like.</t>
+          <t>I thought the latter part seemed quite like AI.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>It's true that 40 might be a little low.</t>
+          <t>Indeed, 40 might be a bit low.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I think this part seems AI-like.</t>
+          <t>This part seems like AI to me.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"The subsequent sentence as well"</t>
+          <t>The next sentence too.</t>
         </is>
       </c>
     </row>
@@ -539,21 +539,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I expected it to be around 40%.</t>
+          <t>I estimated it to be about 40%.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Do you have any plans to change it?</t>
+          <t>Are there any planned changes?</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I'm planning to lower it a bit.</t>
+          <t>Planning to lower it a bit.</t>
         </is>
       </c>
     </row>
@@ -581,14 +581,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I thought the percentage was quite high.</t>
+          <t>I thought the proportion was quite high.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>"The end of the sentence seems a bit like AI."</t>
+          <t>The ending seems like AI.</t>
         </is>
       </c>
     </row>
@@ -602,14 +602,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I thought I didn't seem like an AI.</t>
+          <t>I didn't think I seemed like AI.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hello!</t>
+          <t>Yoo-hoo!</t>
         </is>
       </c>
     </row>
@@ -630,84 +630,84 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>There are specific names and people's comments, but...</t>
+          <t>There are specific names and people’s comments, though.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>That's difficult, isn't it?</t>
+          <t>It's difficult, isn't it?</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I think it's around 30.</t>
+          <t>I think around 30.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>This probably can't be generated by AI.</t>
+          <t>Maybe this can't be generated by AI.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Probably, though.</t>
+          <t>Maybe, though.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Certainly.</t>
+          <t>Certainly</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Where did you make the division?</t>
+          <t>Where did you divide it?</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>If that part is taken directly from Wikipedia, then...</t>
+          <t>If that's taken directly from Wikipedia, then</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>"Does it seem like it will get lower?"</t>
+          <t>Do you think it will get lower?</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>It seems like a fairly high percentage was thought up by people.</t>
+          <t>The ratio seems fairly high for something people have thought of.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>If the prediction difference is within 88, you can get money, at least 0 yen.</t>
+          <t>If the difference between the prediction and the result is within 88, you will receive at least 0 yen.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>It's safe to keep it around 50.</t>
+          <t>It's safer to keep it around 50.</t>
         </is>
       </c>
     </row>
@@ -721,28 +721,28 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>This time it might be around 30.</t>
+          <t>This time, maybe around 30.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>"I don't know, but…"</t>
+          <t>I don't know.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I thought I was about 90% human at the very last moment.</t>
+          <t>I thought I was about 90% human at the end.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The prediction is that it's below 50.</t>
+          <t>I expect it to be below 50.</t>
         </is>
       </c>
     </row>
@@ -756,45 +756,42 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sure! The translation of "はーい" to English is "Okay" or "Yes." It's a casual and informal way of agreeing or acknowledging something.</t>
+          <t>Yesー</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hey!</t>
+          <t>Yoo-hoo!</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hello.</t>
+          <t>Hello</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Details such as the exact time and the cause of the accident</t>
+          <t>Specific times or causes of the accident or things like that.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Weirdly realistic or specific guys.</t>
+          <t>Weirdly realistic or in other words, specific characters.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>やから can be translated to English in a few different ways, depending on the context in which it is used. Common interpretations include:
-- "Because" or "therefore" if it is used to explain a reason.
-- "Gang" or "hooligan" if it is used in a slang or regional context, particularly in Kansai dialect where it might refer to a group of rough individuals.
-If you provide more context, I can give a more precise translation.</t>
+          <t>Thug</t>
         </is>
       </c>
     </row>
@@ -808,21 +805,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Well, I feel like AI might not be able to replicate those real aspects.</t>
+          <t>Well, I feel like those kinds of real things are something AI might not be able to replicate.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Well, I don't really know, though.</t>
+          <t>I don't really know, though.</t>
         </is>
       </c>
     </row>
@@ -836,70 +833,70 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The number of people, etc.</t>
+          <t>Number of people, etc.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>something like six people</t>
+          <t>About six people or so</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>It seems like AI might not be very good at it.</t>
+          <t>AI seems to struggle somehow, doesn't it?</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>"Reproduce it."</t>
+          <t>Reproduce it.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sure! The translation of "うん" to English is "Yeah" or "Uh-huh."</t>
+          <t>Yeah</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>It kind of feels like that.</t>
+          <t>I have a feeling like that.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Will there be thick fog in the afternoon?</t>
+          <t>Is there a thick fog in the afternoon?</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>I don't understand.</t>
+          <t>I don't know.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>The word "わら" can be translated to "straw" in English. However, if it represents laughter in an informal context, like in messaging, it could be translated as "lol" or simply "laugh." Please let me know if there is a specific context you have in mind!</t>
+          <t>Straw</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Is the dense fog in the morning?</t>
+          <t>The dense fog is morning or</t>
         </is>
       </c>
     </row>
@@ -913,14 +910,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>P suddenly drops, doesn't it?</t>
+          <t>P suddenly drops低 down.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sure! The Japanese particle "ね" is often used at the end of a sentence to seek agreement or confirmation, similar to saying "right?" or "isn't it?" in English. If it's used on its own, it can be a way to seek agreement. However, for a precise translation considering the context, you might want to provide more details.</t>
+          <t>Hey</t>
         </is>
       </c>
     </row>
@@ -948,7 +945,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>For now, based on the expected value</t>
+          <t>For the time being, in terms of expected value.</t>
         </is>
       </c>
     </row>
@@ -962,42 +959,42 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Unremarkable</t>
+          <t>Safe</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>I can only predict whether it's higher or lower than 50.</t>
+          <t>I can only predict whether it is higher or lower than 50.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sure thing! The translation of "そうやな" is "That's right" or "I agree."</t>
+          <t>I agree.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>The same feeling</t>
+          <t>Same feeling</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>In the end, it’s too much of a luck-based game.</t>
+          <t>In the end, it's too much of a luck-based game.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>If the difference is within 88, it seems you can get at least 1 yen.</t>
+          <t>It seems that if the difference is within 88, you can get at least 1 yen.</t>
         </is>
       </c>
     </row>
@@ -1011,28 +1008,28 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sure! The translation of "うん" to English is "Yeah" or "Uh-huh."</t>
+          <t>Yeah</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>This time, well</t>
+          <t>This time, well,</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Over 50?</t>
+          <t>Above 50?</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sure! The text "？かな" can be translated to English as "I wonder?"</t>
+          <t>? I wonder.</t>
         </is>
       </c>
     </row>
@@ -1046,14 +1043,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>I was doing it secretly.</t>
+          <t>I was pretending.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The ratio of AI</t>
+          <t>Percentage of AI</t>
         </is>
       </c>
     </row>
@@ -1074,49 +1071,49 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Survey</t>
+          <t>Investigation</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>"I'm laughing too."</t>
+          <t>I'm laughing too.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>"Not really, though."</t>
+          <t>But</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Hmm, but indeed.</t>
+          <t>Hmm, but certainly.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Specific names or something like that</t>
+          <t>Specific names and such</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Because there are place names, and things like that.</t>
+          <t>There are place names and such.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>"Maybe 50 or below"</t>
+          <t>Maybe below 50.</t>
         </is>
       </c>
     </row>
@@ -1130,14 +1127,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>I thought it was AI about 80-90%.</t>
+          <t>I thought it was about 80-90% AI.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>I thought that the percentage of AI might be on the lower side, but what do you think?</t>
+          <t>I thought the proportion of AI might be on the lower side, but what do you think?</t>
         </is>
       </c>
     </row>
@@ -1151,42 +1148,42 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Starting midway, the sentences continued without ending in the past tense, which felt odd.</t>
+          <t>There was a sense of discomfort because the sentences from the middle were not in the past tense.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>I thought the use of "taigen-dome" made it seem more human-like.</t>
+          <t>I thought the use of noun-ending sentences made it seem human-like.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>I thought it was about 20, LOL.</t>
+          <t>I thought it was around 20 lol</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Certainly</t>
+          <t>Certainly.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>The Hiroshima team put up a tenacious defense, but they were unable to achieve a comeback.</t>
+          <t>The Hiroshima team countered with skillful defense but could not turn the game around.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>"I guess that's about right."</t>
+          <t>I guess it's around this time.</t>
         </is>
       </c>
     </row>
@@ -1200,42 +1197,42 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>"It's hard to tell if the lack of fixed tense is characteristic of humans or AI."</t>
+          <t>It's difficult to tell whether the lack of a consistent tense is human or AI.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Certainly, when it's said to be a human's writing, it starts to feel that way, and I'm becoming unsure.</t>
+          <t>Certainly, when it's said this is human writing, I start to think it might be, and I'm becoming unsure.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The text here seems a bit unnatural, so I thought it might be AI-generated.</t>
+          <t>I thought this text might be from AI because it sounds a bit unnatural.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>I definitely think so.</t>
+          <t>I think that's certainly true.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Is there something wrong with him?</t>
+          <t>Does he have something?</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3 yen is seriously funny.</t>
+          <t>3 yen is definitely funny.</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1253,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>"The thing is"</t>
+          <t>That's because</t>
         </is>
       </c>
     </row>
@@ -1277,14 +1274,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>It is AI, isn’t it?</t>
+          <t>Is it AI?</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Which one is it?</t>
+          <t>Which is it?</t>
         </is>
       </c>
     </row>
@@ -1312,36 +1309,35 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>If it's a typo</t>
+          <t>If it was a typographical error</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sure thing! The phrase "そうですね" can be translated to English as "That's right," "I see," or "Indeed," depending on the context.</t>
+          <t>I see.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>The phrase "人間や市" can be translated to English as "humans and cities."</t>
+          <t>Humans and cities</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>The text appears to be a single Japanese character, "し," which is pronounced as "shi." However, without additional context, it is challenging to convey an exact translation or meaning because "し" can serve different purposes in various contexts. For example, it can be a syllable in a word, a particle indicating a reason, or part of a list, among others. Please provide additional context for a more accurate translation.</t>
+          <t>I apologize, but I need more context or additional characters to provide an accurate translation.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sure! The translation of the text "AIなんかな" to English is:
-"AI, I guess."</t>
+          <t>Things like AI</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1351,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>I don't understand.</t>
+          <t>I don't know.</t>
         </is>
       </c>
     </row>
@@ -1383,35 +1379,35 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>That's hilarious!</t>
+          <t>Funny and lively.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>It might be AI.</t>
+          <t>I wonder if it's AI.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hmm.</t>
+          <t>Hmmm</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Well,</t>
+          <t>Well</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>I'm thinking it'll be around 10 to 20 as well.</t>
+          <t>I also think it's around 10-20.</t>
         </is>
       </c>
     </row>
@@ -1425,14 +1421,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>It's about the same.</t>
+          <t>About the same.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>This doesn't seem to work at all even when I chat.</t>
+          <t>In fact, even if we chat, it's completely...</t>
         </is>
       </c>
     </row>
@@ -1453,14 +1449,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The average level has risen.</t>
+          <t>The average score had improved.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>"It doesn't matter."</t>
+          <t>It doesn't matter.</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1470,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>That's amazing!</t>
+          <t>That's amazing.</t>
         </is>
       </c>
     </row>
@@ -1488,21 +1484,21 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>I've only done it about twice, but...</t>
+          <t>I've only done it about twice, but</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sure! The phrase "なるへそ" is a playful or humorous variation of "なるほど," which means "I see," "I understand," or "That makes sense" in English.</t>
+          <t>I see.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>"14 yen is undeniably laughable."</t>
+          <t>14 yen is indeed laughable.</t>
         </is>
       </c>
     </row>
@@ -1523,98 +1519,98 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>It’s impossible.</t>
+          <t>I can't do it.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>I don't get this.</t>
+          <t>I can't understand this.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>"I can only guess whether it's above or below 50."</t>
+          <t>I can only predict whether it's above or below 50.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>"I want to go home."</t>
+          <t>I want to go home.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>For now, this time,</t>
+          <t>For now, this time</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sleepy</t>
+          <t>Sleepy.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hmm.</t>
+          <t>Hmm</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>I thought it might be about half.</t>
+          <t>I thought it was about half.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>I made it about 40.</t>
+          <t>I made it around 40.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Certainly! The phrase "それな" can be translated to English as "Exactly" or "That's right." It's often used in casual conversation to express agreement with what someone else has said.</t>
+          <t>Exactly.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>I think it's about the same for me.</t>
+          <t>I think so too.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>It's after lunch, you know.</t>
+          <t>I told you, it's after I had lunch.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>I set it to about 50.</t>
+          <t>I made it around 50.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>The phrase "なるへそ" is a playful alteration of "なるほど," which means "I see," "I understand," or "That makes sense" in English.</t>
+          <t>I see.</t>
         </is>
       </c>
     </row>
@@ -1628,14 +1624,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Because it is personal information,</t>
+          <t>Since it's personal information</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>"I can't say."</t>
+          <t>I can't say.</t>
         </is>
       </c>
     </row>
@@ -1649,35 +1645,35 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>The text "あおもろ" appears to be a typo or unconventional usage in Japanese, as it doesn't directly translate to a specific English equivalent. It might be a misspelling or a form of slang. If you intended a specific meaning or context for this word, please provide more details, and I will do my best to help with the translation.</t>
+          <t>Aomoro</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>I started to think it might be AI around that time.</t>
+          <t>I started to think it might be AI from around that point.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>"制度でフィードバック" would be translated to "Feedback on the system" in English.</t>
+          <t>Feedback system</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>"How long was it?"</t>
+          <t>How much was it?</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>Precision</t>
         </is>
       </c>
     </row>
@@ -1691,35 +1687,35 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>"I"</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>It's about the same.</t>
+          <t>About the same.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>This is tough.</t>
+          <t>This is difficult.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>The text as a whole was natural, so I thought the percentage might be low.</t>
+          <t>Overall, since it was a natural text, I thought the ratio might be low.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>On the other hand, after that comes "ai kana".</t>
+          <t>After all, AI is possible.</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1729,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>I also think it's around there.</t>
+          <t>I guess I'm around there too.</t>
         </is>
       </c>
     </row>
@@ -1747,35 +1743,35 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Around 20?</t>
+          <t>About 20?</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>The last 1-2 sentences should be around 30 words.</t>
+          <t>As the last 1-2 sentences around 30.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>"I was doing it at 15."</t>
+          <t>I was doing it at 15.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>That's just how it is, isn't it?</t>
+          <t>That's just how it is, right?</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1796,14 +1792,14 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>I felt that the first sentence and the subsequent sentences were written either by a human or AI differently.</t>
+          <t>I felt that the first sentence and the subsequent sentences were written by either a human or AI differently.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>The reason is also because of the ending.</t>
+          <t>The reason is also the ending.</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1813,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>The desu-masu form seems more like AI.</t>
+          <t>The desu-masu style seems more AI-like.</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1834,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Hello!</t>
+          <t>Yoo-hoo!</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Hi!</t>
+          <t>Yoo-hoo!</t>
         </is>
       </c>
     </row>
@@ -1866,42 +1862,42 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>"For now, I can only predict whether it's higher or lower than 50."</t>
+          <t>For now, I can only predict whether it's higher or lower than 50.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>I made it 100 yen, so I haven't been chatting at all.</t>
+          <t>I made it 100 yen, so I'm not chatting at all.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>I changed it to 81 yen.</t>
+          <t>I made it 81 yen.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>What was the average precision?</t>
+          <t>What was the average accuracy?</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Safe</t>
+          <t>Peace</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ah</t>
+          <t>Ann</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1911,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>It looks like the text "わい" is already in Japanese. This term is a casual or dialectal pronoun used in some regions of Japan, particularly in Kansai, to mean "I" or "me." However, without additional context, it's challenging to provide an exact English equivalent because its usage can be nuanced and context-dependent. If you have more context or if it appears in a specific sentence, please provide it for a more accurate translation.</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1936,28 +1932,28 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>It's the same.</t>
+          <t>I'm with you.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Talking won't change much, you know.</t>
+          <t>Talking about it won't change much.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>The second time was a bit more expensive than the first time.</t>
+          <t>The second time was a little more expensive than the first.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>That's amazing!</t>
+          <t>That's amazing.</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1967,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>I saw the results, but</t>
+          <t>I saw the results, but...</t>
         </is>
       </c>
     </row>
@@ -1992,14 +1988,14 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Well, that doesn't really matter, but...</t>
+          <t>Well, that doesn't really matter.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>This time, I made it 50.</t>
+          <t>This time, I set it to 50, however.</t>
         </is>
       </c>
     </row>
@@ -2013,28 +2009,28 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Changed it to 45.</t>
+          <t>Changed to 45.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>"What might be a good price?"</t>
+          <t>I wonder how much is good.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>45 or so</t>
+          <t>45 or 45 times</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Alright, let's do that. I'll join in too.</t>
+          <t>Alright, let's do that. I'm in too.</t>
         </is>
       </c>
     </row>
@@ -2048,14 +2044,14 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>"I want to go home."</t>
+          <t>I want to go home.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>"It's around the time of inspection in Fukui that seems a little strange."</t>
+          <t>"It started to seem strange around the time of inspection in Fukui."</t>
         </is>
       </c>
     </row>
@@ -2069,50 +2065,49 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Wondering if the first sentence might be too long.</t>
+          <t>The first sentence might be too long.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>All AI, really?</t>
+          <t>All AI, seriously?</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Certainly, the third line.</t>
+          <t>Indeed, the third line.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>The surroundings seem likely to change.</t>
+          <t>It looks like it might break.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>It feels like copy-pasting.</t>
+          <t>It feels copy-pasted.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Here is the translation of your text:
-"In the first half, there seem to be many sentences that are particularly unnatural and AI-like. What do you think?"</t>
+          <t>I think there are particularly many unnatural and AI-like sentences in the first half, don't you think?</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>I'm only concerned with the first sentence.</t>
+          <t>I'm only concerned about the first sentence.</t>
         </is>
       </c>
     </row>
@@ -2126,35 +2121,35 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>"Where does the first half end?"</t>
+          <t>Where does the first half end?</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>What was your first guess? Mine was 86.</t>
+          <t>What did you guess the first time? I guessed 86.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Changed it to 90.</t>
+          <t>Changed to 90.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>It is also concerning that the following organizations have twice.</t>
+          <t>It's also concerning that the following organizations have it twice.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>The text from the second line onwards seems suspicious, doesn't it?</t>
+          <t>The lines from the second onward are suspicious, aren't they?</t>
         </is>
       </c>
     </row>
@@ -2168,14 +2163,14 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Sure! The translation of "ですね" is "isn't it?" or "right?" depending on the context.</t>
+          <t>Right?</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Up to about line 4, around "確保しています" (securing).</t>
+          <t>It's roughly up to the phrase "ensuring" in the fourth line.</t>
         </is>
       </c>
     </row>
@@ -2196,42 +2191,42 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>I also think the text from the second line onward is AI-generated.</t>
+          <t>I also think the second line and beyond are AI.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>I wonder.</t>
+          <t>Isn't it?</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Alright!</t>
+          <t>All right!</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Able to speak at the end</t>
+          <t>Can talk at the end</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>It's finally almost over.</t>
+          <t>Finally, it's almost over.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>"Really long"</t>
+          <t>It's really long.</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2240,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>"Enough already."</t>
+          <t>Enough already.</t>
         </is>
       </c>
     </row>
@@ -2266,56 +2261,56 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Well, since I didn't understand anything again this time, I went with 45.</t>
+          <t>Well, I didn't understand anything this time either, so I marked it as 45.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>How was it over there?</t>
+          <t>How was it there?</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>It's 60.</t>
+          <t>60.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>The first prediction</t>
+          <t>First prediction</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>The text "ほうお" does not form a complete phrase or sentence in Japanese. It seems to be incomplete or contextually unclear. If you have additional context or specific information regarding how it's used, I would be able to provide a more accurate translation.</t>
+          <t>Ho-oh</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>"Takameyana"</t>
+          <t>It's pretty high.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Well, I don't really know, though.</t>
+          <t>Well, I don't really know.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>The basis is always nothing, and that's how I proceed.</t>
+          <t>I go with nothing to back it up every time.</t>
         </is>
       </c>
     </row>
@@ -2336,70 +2331,70 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>The comment section seems to be saying something that sounds right, so q</t>
+          <t>The comment section is saying something that seems plausible.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>If someone were to write there</t>
+          <t>If it were written by a person</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>The part written by people doesn't get long.</t>
+          <t>The part written by people doesn't get too long.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Therefore</t>
+          <t>So</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Certainly.</t>
+          <t>Indeed</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>"I'm wondering if AI might be halved."</t>
+          <t>AI might reduce by half.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>"Say" or "tell."</t>
+          <t>Say</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>There's a valid basis for it.</t>
+          <t>There is evidence.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Serious reasoning</t>
+          <t>Serious deduction</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Found it.</t>
+          <t>Got it.</t>
         </is>
       </c>
     </row>
@@ -2413,21 +2408,21 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Ah, it's finally overrrrrr!</t>
+          <t>Ah, it's finally over!</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>That feels gooooooooood</t>
+          <t>It feels gooooooooodddddddddd.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Ehhhhhhhhhhhhhhhhh</t>
+          <t>Eeeeeeeeeeeeeee!</t>
         </is>
       </c>
     </row>
@@ -2455,28 +2450,28 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>What percentage did you choose? I wasn't sure, so I went with 56.</t>
+          <t>What percentage did you set it to? I wasn't sure, so I set it to 56.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>I made it 70.</t>
+          <t>Changed to 70.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>What percentage did you choose?</t>
+          <t>What percentage did you set it to?</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>It is 75.</t>
+          <t>I am 75.</t>
         </is>
       </c>
     </row>
@@ -2497,63 +2492,63 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>at 98</t>
+          <t>At 98</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>I definitely started to feel it was less like news as it went on.</t>
+          <t>I certainly felt it became less like news as it went on.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>"From the second line, I feel like something is off."</t>
+          <t>I thought something was strange from the second line.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Certainly</t>
+          <t>Certainly.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Isn't it like AI that Matsuura City is also running for office?</t>
+          <t>Isn't it like AI for Matsuura City to run as well?</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Here is what I considered to be written by a person.</t>
+          <t>I considered that up to this point was written by a person.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>I see. If I were to give you just one answer, I would say it seems suspicious.</t>
+          <t>Well, if I were to give just one answer, I would say it's suspicious.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>What do you consider to be the criteria for judgment?</t>
+          <t>What do you consider as the criteria for judgment?</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>The ending is undecided, so it's different.</t>
+          <t>The ending varies like "undefined."</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2562,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Is this partially AI-related, I wonder?</t>
+          <t>Is this partly due to AI?</t>
         </is>
       </c>
     </row>
@@ -2581,28 +2576,28 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>"After that, the surgery was performed on May 25. I think this is where AI comes in."</t>
+          <t>The surgery was performed on May 25th. I think this is where AI comes in.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Certainly</t>
+          <t>Indeed</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>The date has changed, so...</t>
+          <t>The date has changed, so</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>It's strange starting from around there.</t>
+          <t>It's strange from around there.</t>
         </is>
       </c>
     </row>
@@ -2623,14 +2618,14 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>I think it's around 50.</t>
+          <t>About 50, I guess.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Sure. The translation of "そうですね" is "That's right" or "I see" or "Let me see." The exact translation can vary depending on the context.</t>
+          <t>I see.</t>
         </is>
       </c>
     </row>
@@ -2651,42 +2646,42 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>What's wrong?</t>
+          <t>What's the matter?</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Changed it to 65.</t>
+          <t>Changed to 65.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>"Or"</t>
+          <t>Or</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>"I thought"</t>
+          <t>I thought.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>"I also thought the proportion of AI was relatively high."</t>
+          <t>I also thought the proportion of AI was quite high.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>I changed it to 40.</t>
+          <t>Changed to 40.</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2695,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>I thought maybe this place would be fine.</t>
+          <t>I thought it might be okay here too.</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2716,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Is this real?</t>
+          <t>Is this the truth?</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2737,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>It seems likely, though.</t>
+          <t>It seems likely.</t>
         </is>
       </c>
     </row>
@@ -2756,21 +2751,21 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>The tone suddenly shifts to a more formal manner here, using '-desu/-masu'.</t>
+          <t>From here, I'll suddenly switch to a more formal tone.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>I think this is AI from here.</t>
+          <t>I think this is where AI comes in.</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>According to the Japan Coast Guard, it suddenly became unnatural to switch to polite language.</t>
+          <t>According to the Japan Coast Guard, the sudden switch to polite language was unnatural.</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2779,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>The text is strange, and</t>
+          <t>The text is strange as well</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2793,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Same.</t>
+          <t>The same.</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2807,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>There's no sense of discomfort with the timeline, though.</t>
+          <t>There's no sense of incongruity in the timeline, though.</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2835,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>I made it 70, but...</t>
+          <t>I made it 70.</t>
         </is>
       </c>
     </row>
@@ -2861,14 +2856,14 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>It's hard to read, but it's not wrong, so</t>
+          <t>It's hard to read, but it's not incorrect.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>I was bothered by the fact that only the last part was in polite language.</t>
+          <t>I was bothered by the fact that only the last part was in honorific language.</t>
         </is>
       </c>
     </row>
@@ -2896,14 +2891,14 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Alternatively,</t>
+          <t>Or,</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Where does it seem suspicious?</t>
+          <t>Where is suspicious?</t>
         </is>
       </c>
     </row>
@@ -2917,14 +2912,14 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>It feels like the following content is completely different.</t>
+          <t>I feel like the content afterwards is completely different.</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>For newcomers to Koshien, it was confusing and ended up being expensive.</t>
+          <t>It became difficult to understand and expensive for beginners at Koshien.</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2947,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Changed it to 15.</t>
+          <t>Changed to 15.</t>
         </is>
       </c>
     </row>
@@ -2966,14 +2961,14 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>The text translates to: "I don't understand, so it's 50."</t>
+          <t>I don't understand, so it's 50.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Does this seem strange here?</t>
+          <t>Is this strange here?</t>
         </is>
       </c>
     </row>
@@ -3001,7 +2996,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>I made it 35.</t>
+          <t>I set it to 35.</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3017,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>"I thought this was AI."</t>
+          <t>I thought this was AI.</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3031,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>I think that's about it.</t>
+          <t>I think that's about right.</t>
         </is>
       </c>
     </row>
@@ -3050,28 +3045,28 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>What percentage did you use?</t>
+          <t>What percentage did you set it to?</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>It's about 33, I think.</t>
+          <t>It's about 33, I guess.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>I went with size 44, but I think it's too big.</t>
+          <t>I made it 44, but I think it's too big.</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>It might be around 30.</t>
+          <t>Maybe around 30.</t>
         </is>
       </c>
     </row>
@@ -3092,21 +3087,21 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>I had no idea at all, so I'll believe that.</t>
+          <t>I couldn't understand it at all, so I'll believe that.</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>However,</t>
+          <t>But,</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Are you doing this based on intuition, except for the obviously strange people?</t>
+          <t>Do you do this intuitively, except for obviously weird ones?</t>
         </is>
       </c>
     </row>
@@ -3120,35 +3115,35 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>I thought so.</t>
+          <t>I knew it.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>"I put those who don't understand at 50."</t>
+          <t>I set it to 50 for those who don't understand.</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>It was discovered during a health checkup. I'm curious about what it refers to.</t>
+          <t>They found out during a health check-up. I was concerned about that.</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Certainly</t>
+          <t>Certainly.</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>"Is it all AI?"</t>
+          <t>Is it all AI?</t>
         </is>
       </c>
     </row>
@@ -3162,14 +3157,14 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>I thought I wouldn't understand it from the first sentence.</t>
+          <t>So, I thought I wouldn't understand from the first sentence.</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Isn't this place hard to understand?</t>
+          <t>Don't you find this place a bit confusing?</t>
         </is>
       </c>
     </row>
@@ -3183,14 +3178,14 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>By the way, I submitted it with an 82.</t>
+          <t>By the way, I got it out at 82.</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Is it either 0 or 100?</t>
+          <t>Is it 0 or 100?</t>
         </is>
       </c>
     </row>
@@ -3211,42 +3206,42 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>It had been stated that "consent" had been obtained from China and Japan, but on May 16, that statement was retracted.</t>
+          <t>It had been stated that "consent" had been obtained from China and Japan, but on May 16, this statement was retracted.</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>I also don't understand this part.</t>
+          <t>I don't understand this either.</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>It seems to be around there.</t>
+          <t>That seems to be it.</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>I wonder.</t>
+          <t>I wonder if that's the case.</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>I'm curious about this too.</t>
+          <t>I was also concerned about this.</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>I thought it was something like how a full moon makes it brighter and harder to see comets, and I was convinced there.</t>
+          <t>I thought it was something like how it's harder to see comets when there's a full moon because it's so bright, and I was convinced.</t>
         </is>
       </c>
     </row>
@@ -3267,35 +3262,35 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>I thought this part was hard to read.</t>
+          <t>I thought this was hard to read.</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>That's certainly true.</t>
+          <t>That's true, isn't it?</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>"I don't know, though."</t>
+          <t>I don't know.</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>“However, I think the conversation before and after doesn’t make sense.”</t>
+          <t>However, I think the conversation doesn't make sense before and after.</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>For now, I made it 81.</t>
+          <t>For the time being, I made it 81.</t>
         </is>
       </c>
     </row>
@@ -3344,21 +3339,21 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>What shall we do next?</t>
+          <t>What will you have next?</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>It might be around 30.</t>
+          <t>Around 30, I suppose.</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Maybe 26?</t>
+          <t>Like 26?</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3367,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>I'll do that as well.</t>
+          <t>I'll do about the same.</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3381,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3409,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>There were many parts where the Japanese was strange.</t>
+          <t>There were many instances where the Japanese was strange.</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3430,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>The translation for the number "30" to English is "thirty."</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3463,14 +3458,14 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>It's quite suspicious from the beginning, isn't it?</t>
+          <t>It's quite suspicious from the very beginning, isn't it?</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>It might be around TAPVC.</t>
+          <t>I think it might be around TAPVC.</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3479,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Hello!</t>
+          <t>Hello.</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3493,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Hello!</t>
+          <t>Hello</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3521,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Did Mr. Kiyosari come around here in Showa 16?</t>
+          <t>Mr. Kiyose was here in Showa 16?</t>
         </is>
       </c>
     </row>
@@ -3547,14 +3542,14 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>The text contains a typo or error in Japanese. However, a possible intended phrase could be "わからなすぎます," which means "I don't understand it at all" or "It's too difficult to understand."</t>
+          <t>I don't understand it too much.</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Mr./Ms. Kiyosei's home address is not disclosed. → How about this...?</t>
+          <t>Mr. Kiyosei's home address is not disclosed. How about that...?</t>
         </is>
       </c>
     </row>
@@ -3568,21 +3563,21 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>The funeral and memorial service will be held on the 14th at 10 a.m. Perhaps that's what they'd call AI.</t>
+          <t>The funeral and farewell ceremony will be held at 10 a.m. on the 14th.</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>According to NHK and Hokkaido Cultural Broadcasting, Lebanon can be considered the biggest terror incident in Lebanon. Doesn't this sound a bit artificial intelligence-like?</t>
+          <t>According to NHK and Hokkaido Cultural Broadcasting, Lebanon can be said to have the largest terrorism issue in Lebanon. Doesn't this seem a bit AI-like?</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>I think it's mostly AI, but what do you think?</t>
+          <t>I think it's almost AI, but what do you think?</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3605,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>I thought so.</t>
+          <t>That's what I thought.</t>
         </is>
       </c>
     </row>
@@ -3624,28 +3619,28 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Lebanon comes up a lot, doesn't it?</t>
+          <t>Lebanon appears frequently, doesn't it?</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>It sounds like a tongue twister.</t>
+          <t>Sounds like a tongue twister.</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Is it about 90 percent?</t>
+          <t>About 90 percent, I guess?</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>It's around 90, I guess.</t>
+          <t>Is it around 90?</t>
         </is>
       </c>
     </row>
@@ -3659,21 +3654,21 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>I will give you a little.</t>
+          <t>I'll give you a little.</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Hello!</t>
+          <t>Hello.</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Hello!</t>
+          <t>Hello.</t>
         </is>
       </c>
     </row>
@@ -3694,35 +3689,35 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>I'm 17</t>
+          <t>I am 17.</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>"A bit on the low side?"</t>
+          <t>A low feeling?</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>The text "すかね" can be translated to English as "I wonder" or "I suppose", depending on the context. It is often used to express a casual or tentative consideration.</t>
+          <t>I wonder.</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Somehow from the last Kokumin Shin-tō.</t>
+          <t>Somehow, from the last Kokumin Shintō...</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>It seems like it's starting to feel like AI around here, so I guess it's about 85.</t>
+          <t>Since it seems AI-like around here, I guess it's about 85.</t>
         </is>
       </c>
     </row>
@@ -3736,14 +3731,14 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>This area feels kind of AI-like.</t>
+          <t>This part seems AI-like, doesn't it?</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Around 40, or something like that.</t>
+          <t>Around 40 or so</t>
         </is>
       </c>
     </row>
@@ -3764,42 +3759,42 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Thank you</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>How much do you think it is, percentage-wise?</t>
+          <t>What percentage do you think it is?</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>I don't think there's much.</t>
+          <t>I don't think there are many.</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Alright.</t>
+          <t>I see.</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>About 20%</t>
+          <t>About twenty percent.</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>"If it's 20%, then it's about a line, isn't it?"</t>
+          <t>If it's 20%, it's about one line.</t>
         </is>
       </c>
     </row>
@@ -3813,35 +3808,35 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>I'm sorry, I don't really understand.</t>
+          <t>I'm sorry, I don't understand very well.</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Sure thing! The translation of "おっけーです" to English is "Okay."</t>
+          <t>Okay.</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Changed to 0</t>
+          <t>I set it to 0.</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Is it 0?</t>
+          <t>Is it zero?</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Changed it to 30.</t>
+          <t>I made it 30.</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3850,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>The very end of the last sentence is in honorific language.</t>
+          <t>I noticed that only the ending of the last sentence is in polite form.</t>
         </is>
       </c>
     </row>
@@ -3869,14 +3864,14 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Changed to 100 people.</t>
+          <t>Turned into 100 people.</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>How's it going?</t>
+          <t>How is it?</t>
         </is>
       </c>
     </row>
@@ -3890,63 +3885,63 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>The last one, huh?</t>
+          <t>Is it the end?</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Sure! The translation of "うん" to English is "Yeah" or "Uh-huh."</t>
+          <t>Yeah</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>The phrase "むずすんぎ" is casual and playful, and it's a stylized way of saying "むずすぎ" (muzusugi), which means "too difficult" in Japanese.</t>
+          <t>So difficult</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Since there is (), it's a bit iffy.</t>
+          <t>There's something uncertain/discreet about it.</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Kana and</t>
+          <t>Kanato</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>"I'm not sure" or "I don't know."</t>
+          <t>I don't know.</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Me too.</t>
+          <t>Me too</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Sure! The translation of "ね" is "right" or "isn't it" depending on the context. It's a sentence-ending particle used to seek confirmation or agreement in Japanese.</t>
+          <t>Hey</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Hello. Do you think anything seems off?</t>
+          <t>Hello. Do you think something seems off?</t>
         </is>
       </c>
     </row>
@@ -3967,14 +3962,14 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>The number 11 does not need translation, as it is the same in both languages.</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>"Where do you think AI is?"</t>
+          <t>Do you think it's AI somewhere?</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4004,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>I guessed that this part was written by a person.</t>
+          <t>I guessed that this part was written by a human.</t>
         </is>
       </c>
     </row>
@@ -4023,14 +4018,14 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>What was the accuracy like in the first half?</t>
+          <t>How accurate was it in the first half?</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>The AI estimates it to be 85.</t>
+          <t>AI estimates 85.</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4046,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Something like everything?</t>
+          <t>Somehow everything?</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4081,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>I'd say about the same, around 40.</t>
+          <t>I'm about the same, around 40.</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4123,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>The prediction was 74.</t>
+          <t>Predicted 74.</t>
         </is>
       </c>
     </row>
@@ -4149,21 +4144,21 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>I'm sorry for not understanding.</t>
+          <t>I'm sorry, I don't understand very well.</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>According to Sports Hochi, I feel a sense of discomfort from ～.</t>
+          <t>According to Sports Hochi, I feel a sense of discomfort from it.</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Thank you.</t>
         </is>
       </c>
     </row>
@@ -4198,21 +4193,21 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Me too? 20%?</t>
+          <t>Me too, 20%?</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>That's right.</t>
+          <t>Right?</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Hello!</t>
+          <t>Hello</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4221,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Sure, the phrase "ですよね" can be translated to English as "Isn't that right?" or "Right?" It’s often used to seek agreement or confirmation from someone.</t>
+          <t>Right?/Isn't that so?</t>
         </is>
       </c>
     </row>
@@ -4254,14 +4249,14 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>I don't know anything about baseball, so... what do you think?</t>
+          <t>I don't know anything about baseball at all... What do you think?</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>What do you think the speculation is like?</t>
+          <t>What do you think it feels like?</t>
         </is>
       </c>
     </row>
@@ -4275,35 +4270,35 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>"About 20% lower? Not much sense..."</t>
+          <t>About 20% lower? Not much sense...</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>There are certainly some strange parts, but it's not the entire thing.</t>
+          <t>There are certainly odd parts, but not the whole thing.</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Yeah</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>I only have the sky and the stars...</t>
+          <t>I am the sky and stars only...</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Hello. How much do you think it is?</t>
+          <t>Hello. How long do you think it will take?</t>
         </is>
       </c>
     </row>
@@ -4317,42 +4312,42 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>"30"</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Would it be about half?</t>
+          <t>About half?</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Sure, the translation is: "That's right."</t>
+          <t>I see.</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>There is an overall sense of discomfort.</t>
+          <t>Overall, there is a sense of discomfort.</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>I kind of want to say almost all of it, though.</t>
+          <t>I kind of want to say almost everything, though.</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>It might be due to my lack of understanding, but...</t>
+          <t>It might be due to a lack of my own understanding, so...</t>
         </is>
       </c>
     </row>
@@ -4366,21 +4361,21 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>The text "29" in English is "29."</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Hello. How long do you think it will take?</t>
+          <t>Hello. How much do you think it is?</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>I think it's around 30.</t>
+          <t>I think it's about 30.</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4389,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Yes, I don't really understand.</t>
+          <t>That's right. I don't really understand.</t>
         </is>
       </c>
     </row>
@@ -4429,28 +4424,28 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Got it?</t>
+          <t>Do you understand?</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>There don't seem to be many AI-generated texts, right?</t>
+          <t>Not many AI-generated texts, are there?</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>I thought they were all human.</t>
+          <t>I thought everything was human.</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>It doesn't seem so, does it?</t>
+          <t>It doesn't seem likely, does it?</t>
         </is>
       </c>
     </row>
@@ -4464,21 +4459,21 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>JR West plans to hire a contractor for pest control.</t>
+          <t>JR West plans to request extermination services from a contractor.</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>I don't think it's even 20%.</t>
+          <t>I think it's not even 20%.</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>I changed it to 20%.</t>
+          <t>Changed it to 20%.</t>
         </is>
       </c>
     </row>
@@ -4492,14 +4487,14 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>I didn't understand, so I chose 29.</t>
+          <t>I didn't understand, so I went with 29.</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>I made it about the same.</t>
+          <t>Made it about the same.</t>
         </is>
       </c>
     </row>
@@ -4513,42 +4508,42 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Original reporting is translated by the Wikinews Original Reporting Translation Network (WORTNET).</t>
+          <t>Independent coverage is translated through the WikiNews Original Reporting Translation Network (WORTNET).</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Hello.</t>
+          <t>Hello</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>The first sentence seemed unnatural to me.</t>
+          <t>The first sentence felt unnatural to me.</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>I thought it was a human otherwise.</t>
+          <t>Other than that, I thought they were human.</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>I haven't received the text you want to be translated. Could you please provide the text so that I can assist you?</t>
+          <t>ー</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>"Isn't this definitely done by AI?"</t>
+          <t>Isn't this definitely AI?</t>
         </is>
       </c>
     </row>
@@ -4569,14 +4564,14 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>I feel that the writing lacks a human touch.</t>
+          <t>I feel like the writing lacks a human touch.</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>It feels almost like AI, but...</t>
+          <t>I feel like it's mostly AI.</t>
         </is>
       </c>
     </row>
@@ -4597,21 +4592,21 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>What did you estimate the amount to be?</t>
+          <t>How much did you guess?</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>I felt that there are many phrases with the same endings.</t>
+          <t>I felt that many of them have the same endings.</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>It's 80%.</t>
+          <t>80%.</t>
         </is>
       </c>
     </row>
@@ -4625,14 +4620,14 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Same here.</t>
+          <t>Likewise.</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Since it's news, I don't think there's anything wrong with concise sentences. Where do you feel the lack of human touch?</t>
+          <t>It's news, so I don't think there's anything wrong with being concise. Where do you sense the lack of humanity?</t>
         </is>
       </c>
     </row>
@@ -4646,21 +4641,21 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Sure, the translation of "ok" to English is "ok."</t>
+          <t>okay</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>What percentage did you set it to?</t>
+          <t>What percentage did you set it at?</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>I changed it to 63.</t>
+          <t>Changed it to 63.</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4697,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>"I personally felt that something was off."</t>
+          <t>Personally, I felt that there was a sense of discomfort.</t>
         </is>
       </c>
     </row>
@@ -4723,35 +4718,35 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>The Japanese expression "ですね" can be translated to English as "isn't it?" or "right?" It is often used at the end of a sentence to seek agreement or confirmation from the listener. Adjust the translation depending on the context in which it is used.</t>
+          <t>Isn't it?</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>I feel like it</t>
+          <t>I feel like</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>"Huh, there aren't many strange parts."</t>
+          <t>Uh, there aren't really any funny parts.</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>"I feel like"</t>
+          <t>I feel like</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Sure, the translation of "うん" to English is "Yeah" or "Yes."</t>
+          <t>Yeah</t>
         </is>
       </c>
     </row>
@@ -4765,14 +4760,14 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Could it be a human?</t>
+          <t>Is it human?</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>It doesn't seem very exciting.</t>
+          <t>Doesn't seem very AI-like.</t>
         </is>
       </c>
     </row>
@@ -4800,14 +4795,14 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>I feel like the word "very difficult" sounds unnatural. What do you think?</t>
+          <t>I feel like the word "very difficult" sounds unnatural, but what do you think?</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Sure, could you please provide the text you want translated?</t>
+          <t>?</t>
         </is>
       </c>
     </row>
@@ -4828,21 +4823,21 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>It means "32".</t>
+          <t>32.</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>"I'm not sure" or "I don't understand"</t>
+          <t>I don't understand.</t>
         </is>
       </c>
     </row>
@@ -4856,42 +4851,42 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Got it?</t>
+          <t>Understood?</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>It's tricky, isn't it?</t>
+          <t>It's subtle, isn't it?</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>I thought it looked like AI because of the excessive punctuation.</t>
+          <t>I thought it seemed like AI because there were too many punctuation marks.</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>There isn't really anything strange.</t>
+          <t>There aren't many strange parts.</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>"It seems a bit unnatural for the short text to continue like this."</t>
+          <t>It might feel unnatural for the short text to continue like this.</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>"8 of 17 of 3"</t>
+          <t>3-17-8 or similar</t>
         </is>
       </c>
     </row>
@@ -4905,35 +4900,35 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>That's true, indeed.</t>
+          <t>That's certainly true.</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>I got the impression that everything around here felt very AI-like. What do you think?</t>
+          <t>I got the feeling that everything around here seemed AI-like, what do you think?</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>To be honest, I've been setting them to 30 or 20 up until now.</t>
+          <t>To be honest, I've been setting it to 30 or 20 until now.</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>How many did you choose?</t>
+          <t>How old did you turn?</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>I changed it to 21. I changed it to 21.</t>
+          <t>I changed it to 21, I changed it to 21.</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4956,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Since it's a beautiful piece of writing, I think it's about 20.</t>
+          <t>Since it is a beautiful sentence, I think it is around 20.</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4970,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>I thought it seemed quite human-like.</t>
+          <t>I thought it seemed quite human.</t>
         </is>
       </c>
     </row>
@@ -4989,21 +4984,21 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>"20, it's close."</t>
+          <t>20 or close.</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Right?</t>
+          <t>Isn't it?</t>
         </is>
       </c>
     </row>
@@ -5024,42 +5019,42 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>It feels like I was able to read it naturally.</t>
+          <t>It feels like I could read it naturally.</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>It does seem a bit lower, indeed.</t>
+          <t>It certainly seems a bit lower.</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Academic ability, particularly in the fields of mathematics and science.</t>
+          <t>Academic ability, particularly in mathematics and science.</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>It seems likely that a human wrote it.</t>
+          <t>It seems like it was almost written by a human.</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>"This place is suspicious."</t>
+          <t>This place is suspicious.</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Likewise, there's nothing unnatural about it.</t>
+          <t>There is nothing unnatural about it.</t>
         </is>
       </c>
     </row>
@@ -5073,49 +5068,49 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>I changed it to 80%.</t>
+          <t>It was set to 80%.</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>It is 35%.</t>
+          <t>35%.</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>I feel like there are too many short sentences compared to the previous one.</t>
+          <t>I wonder if there are too many short sentences compared to the previous one.</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>How many did you choose?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>What number do you think it is?</t>
+          <t>How many percent do you think it is?</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>It means something like "around 5" or "about 5".</t>
+          <t>Around 5.</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>I couldn't understand.</t>
+          <t>I didn't understand.</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5138,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>I think the latter part feels quite human-like.</t>
+          <t>I think the latter half is quite human-like.</t>
         </is>
       </c>
     </row>
@@ -5157,91 +5152,91 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>The first sentence is rather verbose for a news piece.</t>
+          <t>The first sentence is too long-winded for news.</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Time and dates are quite specific, aren't they?</t>
+          <t>It's quite specific with times and dates, isn't it?</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>I discovered it in the first half, but having it happen twice in a row seems a bit unnatural, I guess.</t>
+          <t>I discovered it in the first half, but having it occur twice in a row seems somewhat unnatural.</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Ah-</t>
+          <t>Ah.</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How old did you turn?</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>I somehow felt it was about half and half.</t>
+          <t>I somehow had a feeling it was about half and half.</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Certainly. The translation of "そうですね" is "That's right," or "I agree," depending on the context.</t>
+          <t>I see.</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>The initial sentence seems kind of human-like, I think.</t>
+          <t>The first sentence or so seems human-like.</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>The translation of "15です" to English is "It is 15."</t>
+          <t>I'm 15.</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>"It was caused by an omission of input to the computer, except for the lack of conjunctions."</t>
+          <t>It was caused by an input omission to the computer. Other than the lack of conjunctions, there is nothing else.</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Eh</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>It didn't particularly bother me.</t>
+          <t>I wasn't particularly bothered.</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you decide on?</t>
         </is>
       </c>
     </row>
@@ -5262,14 +5257,14 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>I made it 43.</t>
+          <t>Changed to 43.</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>How old did you turn?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5299,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>"30"</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -5318,21 +5313,21 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>What age did you choose?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Translated to English, "にしました" can mean "decided on" or "chose" depending on context.</t>
+          <t>Decided on.</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
@@ -5346,21 +5341,21 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>I changed it to 80%.</t>
+          <t>I made it 80%.</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>I set it to about 98.</t>
+          <t>I set it to around 98.</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Which part seems AI-like?</t>
+          <t>What seems AI-like about it?</t>
         </is>
       </c>
     </row>
@@ -5374,14 +5369,14 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>But I thought it was almost AI.</t>
+          <t>But I almost thought it was AI.</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>That's right, isn't it?</t>
+          <t>Right?</t>
         </is>
       </c>
     </row>
@@ -5395,35 +5390,35 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>"I thought it was difficult to read because there were many periods."</t>
+          <t>I thought it was difficult to read because there were many 。</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>I'm starting to think that if the text is short, it's probably from an AI.</t>
+          <t>When short texts keep coming, I wonder if it's AI.</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>There's something off about the sentence, isn't there?</t>
+          <t>There is something off about the sentence, isn't there?</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Even though it's a past report, it's strange that everything except the first sentence is in the present tense.</t>
+          <t>Although it is a past report, the use of the present tense after the first sentence feels off.</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Certainly, there are indeed a lot of short sentences.</t>
+          <t>Certainly, there are many short sentences.</t>
         </is>
       </c>
     </row>
@@ -5437,35 +5432,35 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>"た"</t>
+          <t>Ta</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Where is the area that seems human-like?</t>
+          <t>Where is the human-like part?</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Certainly! The word "しかに" can be translated to English as "in such a way" or "in that way," depending on the context.</t>
+          <t>Deer</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>I have never seen news where a representative team is called by the prefecture name.</t>
+          <t>I have never seen news where a representative team is referred to by a prefecture name.</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>I thought it was specific.</t>
+          <t>I think it's specific.</t>
         </is>
       </c>
     </row>
@@ -5479,21 +5474,21 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>How old did you turn?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>I changed it to 30%.</t>
+          <t>I reduced it by 30%.</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>There wasn't much sense of discomfort.</t>
+          <t>I didn't feel much discomfort.</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5502,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>It seems like your request is incomplete. Could you please provide the full text you would like to have translated?</t>
+          <t>50-</t>
         </is>
       </c>
     </row>
@@ -5521,56 +5516,56 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>"Almost human."</t>
+          <t>Almost human.</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>The sentence doesn't feel very awkward, does it?</t>
+          <t>There is not much sense of discomfort in the sentence, right?</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>That's right.</t>
+          <t>Right?</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>The ending feels a bit unnatural, doesn't it?</t>
+          <t>The last part feels a bit unnatural, doesn't it?</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Sure. The translation of "そうですね" is "That's right" or "I see."</t>
+          <t>That's right.</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>I believe that's all.</t>
+          <t>I think that's all.</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>I’ll lower it.</t>
+          <t>I'll lower it.</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>According to the Kobe Shimbun and Nikkan Sports, the only thing that feels off is that there are two instances.</t>
+          <t>According to Kobe Shimbun and Nikkan Sports, the only discomfort is that it happens twice.</t>
         </is>
       </c>
     </row>
@@ -5584,14 +5579,14 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>It seems like there's no need to repeat it since it's the same medium.</t>
+          <t>I feel that there is no need to repeat it since it's the same medium.</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>I thought it was around 40.</t>
+          <t>I thought you were around 40.</t>
         </is>
       </c>
     </row>
@@ -5612,14 +5607,14 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>What percentage did you set it to?</t>
+          <t>What percentage did you choose?</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Hello.</t>
         </is>
       </c>
     </row>
@@ -5633,42 +5628,42 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>The translation of "15です" to English is "It is 15."</t>
+          <t>I'm 15.</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>"I" or "I am" depending on the context.</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>"I changed it to 50%."</t>
+          <t>Changed it to 50%.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>I changed it to 22.</t>
+          <t>Changed to 22.</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>There is a sense of discomfort in the latter half, isn't there?</t>
+          <t>There is something off in the second half.</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>That's right, isn't it?</t>
+          <t>Right?</t>
         </is>
       </c>
     </row>
@@ -5682,14 +5677,14 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>At first, it was the Mainichi Shimbun, but halfway through it turned into Nikkan Sports.</t>
+          <t>Initially, it was the Mainichi Shimbun, but midway through, it turned into the Nikkan Sports.</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Is it a different one?</t>
+          <t>Is it something different?</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5712,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>How old are you now?</t>
+          <t>How old are you?</t>
         </is>
       </c>
     </row>
@@ -5731,14 +5726,14 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>I'm estimating about 40%.</t>
+          <t>I'm expecting about 40%.</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>What's wrong?</t>
+          <t>What's the matter?</t>
         </is>
       </c>
     </row>
@@ -5752,7 +5747,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>え can be translated to "Eh" or "Huh" in English, typically used to express surprise or confusion.</t>
+          <t>Eh</t>
         </is>
       </c>
     </row>
@@ -5766,35 +5761,35 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>Changed it to 99%.</t>
+          <t>I set it to 99%.</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>I think the ones with a series of short sentences might be AI.</t>
+          <t>I think the ones with short sentences continuing in my mind might be AI.</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Hmm, haha</t>
+          <t>Oh, oops, haha.</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>I was estimating around 30%.</t>
+          <t>I was expecting about 30%.</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>The point about saying "fake bomb" instead of a dummy bomb reflects nuances in the Japanese language.</t>
+          <t>The point in Japanese is that it is said "fake bomb" instead of a false bomb.</t>
         </is>
       </c>
     </row>
@@ -5808,21 +5803,21 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>"It feels like I'm out of breath a lot."</t>
+          <t>It feels like I'm out of breath.</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>It doesn't seem to be half?</t>
+          <t>Doesn't it seem like half?</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>You can sense something funny.</t>
+          <t>A sense of humor can be felt.</t>
         </is>
       </c>
     </row>
@@ -5836,21 +5831,21 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>"I'm a little curious about that part."</t>
+          <t>I'm a bit curious there.</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Something like 35% as a compromise, maybe?</t>
+          <t>It's about 35% in between.</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>You could definitely see it that way.</t>
+          <t>Indeed, that can be interpreted that way.</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5859,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>I was taught this by someone else.</t>
+          <t>Someone else taught me this.</t>
         </is>
       </c>
     </row>
@@ -5892,98 +5887,98 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>I didn't really understand and ended up going with 50.</t>
+          <t>I didn't really understand, so I made it 50.</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>I changed it to 85.</t>
+          <t>I set it to 85.</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>"I set it to 80."</t>
+          <t>Changed to 80.</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>It's the same.</t>
+          <t>The same.</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>The last comment. Ending like that seems suspicious, maybe.</t>
+          <t>It's suspicious to end with "final comment."</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>I think the part right after the middle of the street is strange.</t>
+          <t>I think the part of the street next to the middle is strange.</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>How many did you make it...?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>Changed it to 23.</t>
+          <t>I made it 23.</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>It is indeed strange to use "VS" in sumo.</t>
+          <t>It's indeed strange to have VS in sumo.</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>"Explosive laughter" or "hilarious"</t>
+          <t>Hilarious</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>Certainly.</t>
+          <t>Certainly</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>I'm also around 20%.</t>
+          <t>I'm at about 20% too.</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>"It's about pairs, isn't it?"</t>
+          <t>That's right, it's all about pairs, isn't it?</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>"About 70%"</t>
+          <t>About 70%</t>
         </is>
       </c>
     </row>
@@ -6004,49 +5999,49 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>What did you set the percentage to?</t>
+          <t>What percentage did you set?</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>I think it is low.</t>
+          <t>I think it's low.</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>It's around 60.</t>
+          <t>It's about 60.</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>I made it about 80.</t>
+          <t>I set it to about 80.</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>"I made it 45"</t>
+          <t>Changed it to 45.</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>If I had to choose, I'd say AI is kind of strong.</t>
+          <t>If I had to choose, I'd say AI is stronger.</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>"That's right."</t>
+          <t>That's right.</t>
         </is>
       </c>
     </row>
@@ -6060,14 +6055,14 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>"The articles being quoted keep changing, and it's unsettling."</t>
+          <t>I feel uneasy because the article being cited keeps changing.</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>I'm glad because I was thinking of giving a little more.</t>
+          <t>I was thinking of giving a little more, so I'm glad.</t>
         </is>
       </c>
     </row>
@@ -6088,28 +6083,28 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Is this normal? It happens occasionally.</t>
+          <t>This happens occasionally, but is it normal?</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>I thought it could be made even nicer somehow.</t>
+          <t>I thought it could be done more beautifully somehow.</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>How much did you make it?</t>
+          <t>How much did you decide on?</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>At first, it was like Nikkan Sports, then it became more like Sports Hochi.</t>
+          <t>At first, it was Daily Sports, then halfway through, it seemed like Sports Hochi.</t>
         </is>
       </c>
     </row>
@@ -6123,14 +6118,14 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>But it feels like a bit too much.</t>
+          <t>But it feels a bit too much.</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>It is 30%.</t>
+          <t>It's 30%.</t>
         </is>
       </c>
     </row>
@@ -6151,14 +6146,14 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Hello.</t>
+          <t>Hello</t>
         </is>
       </c>
     </row>
@@ -6186,14 +6181,14 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How old did you turn?</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>It's 60、、</t>
+          <t>It's 60...</t>
         </is>
       </c>
     </row>
@@ -6207,14 +6202,14 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>"Undecided, it's 50."</t>
+          <t>Undecided, 50.</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>"I thought the end of the second half felt a bit like AI."</t>
+          <t>I thought the ending part of the latter half felt a bit like AI.</t>
         </is>
       </c>
     </row>
@@ -6228,7 +6223,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>"In what way does it seem human?"</t>
+          <t>In what way does it seem human-like?</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6244,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Which part seems human-like?</t>
+          <t>What part seems human-like?</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6258,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Sure! "ですね" can be translated to English as "isn't it!" or "right!" It is often used to seek agreement or confirmation from the listener.</t>
+          <t>Right!</t>
         </is>
       </c>
     </row>
@@ -6326,21 +6321,21 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>It is 10.</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>I made it around 50.</t>
+          <t>I made it about 50.</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>"But there really isn't anything strange, is there?"</t>
+          <t>But there's nothing really strange, is there?</t>
         </is>
       </c>
     </row>
@@ -6368,14 +6363,14 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Does it seem almost AI-like?</t>
+          <t>Almost like AI?</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Since the casual style has become the polite style, I believe it's AI from here on.</t>
+          <t>The norm has become polite, so I think it's AI from now on.</t>
         </is>
       </c>
     </row>
@@ -6403,14 +6398,14 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>"Isn't it?"</t>
+          <t>Right.</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>What percentage will you go with?</t>
+          <t>What percentage are we going with?</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6419,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>How many did you choose?</t>
+          <t>How many did you get?</t>
         </is>
       </c>
     </row>
@@ -6445,21 +6440,21 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>What percentage did you set it to?</t>
+          <t>What percentage did you choose?</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>It is 21.</t>
+          <t>21.</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>The text "え" can be translated to English as "Eh" or "What?" depending on the context in which it's used. It's often an expression of surprise or confusion in Japanese.</t>
+          <t>Eh</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6468,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>It is 60.</t>
+          <t>I'm 60.</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6489,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>I thought the text was short and seemed like it was written by an AI, but...</t>
+          <t>I thought the text was short and seemed AI-like.</t>
         </is>
       </c>
     </row>
@@ -6515,35 +6510,35 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>It is often about splitting or dividing.</t>
+          <t>Frequently it is about splitting.</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>I couldn't really watch the second half, but how was it?</t>
+          <t>I wasn't able to watch much of the second half, but how was it?</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>"I didn't really understand it, so it might not be helpful."</t>
+          <t>I didn't really understand, so it might not be helpful.</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>"I wonder if we can analyze the first half more thoroughly."</t>
+          <t>I wonder if we can examine the first half more thoroughly and beautifully.</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>I ended up being vague, too.</t>
+          <t>I also ended up being vague.</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6552,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>It's true, that area does seem suspicious.</t>
+          <t>Certainly, that area does seem suspicious.</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6566,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>No, no---</t>
+          <t>No, no, no.</t>
         </is>
       </c>
     </row>
@@ -6585,21 +6580,21 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Somehow</t>
+          <t>Something</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>Is it about 80%?</t>
+          <t>About 80%, I guess?</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>I'm also concerned about the sentences being short and choppy.</t>
+          <t>I'm concerned about how the sentences are cut short.</t>
         </is>
       </c>
     </row>
@@ -6620,7 +6615,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>What did you decide on?</t>
+          <t>How many did you make it?</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6629,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>What percent did you set it to?</t>
+          <t>What percentage did you set it to?</t>
         </is>
       </c>
     </row>
@@ -6655,56 +6650,56 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>I am 50 years old.</t>
+          <t>I'm 50 years old.</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>Hello.</t>
+          <t>Hello</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>I didn't sense any oddness in the sentence, but...</t>
+          <t>I didn't feel any sense of discomfort in the sentence, but</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>I've made it 40.</t>
+          <t>I made it 40.</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>The latter half made me think it might be AI.</t>
+          <t>In the second half, I thought it might be AI.</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Undecided, 50.</t>
+          <t>I'm undecided, so it's 50.</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>I felt something was off (lol)</t>
+          <t>I felt something was off (lol).</t>
         </is>
       </c>
     </row>
@@ -6718,21 +6713,21 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>The newspaper name is indeed different.</t>
+          <t>Certainly, the newspaper names are different.</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Oh, oops! (lol)</t>
+          <t>Huh, haha.</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Doesn't the latter sentence seem too short compared to the length of the first half?</t>
+          <t>Isn't the latter sentence too short compared to the length of the first half?</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6741,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>I think it's quite human-like without being too unnatural.</t>
+          <t>I think it feels quite human without too much unnaturalness.</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6755,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Certainly</t>
+          <t>Certainly.</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6769,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>The parts about attracting attention seem strange.</t>
+          <t>The part about attracting attention is strange.</t>
         </is>
       </c>
     </row>
@@ -6788,14 +6783,14 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Certainly</t>
+          <t>Indeed</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>I think the first half of the sentence is quite lengthy, though.</t>
+          <t>I think the first half of the sentence is rather long.</t>
         </is>
       </c>
     </row>
@@ -6816,35 +6811,35 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>It certainly doesn't feel out of place.</t>
+          <t>Certainly, there's no sense of discomfort.</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>"I'm 30 (lol)."</t>
+          <t>I'm 30 (lol).</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>How many did you make it?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>It's about 70%.</t>
+          <t>About 70%.</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>I'm thinking it might be a bit high.</t>
+          <t>I think it's a bit high.</t>
         </is>
       </c>
     </row>
@@ -6872,14 +6867,14 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>It's a bit confusing because the definitive form and the polite form are mixed together, isn't it?</t>
+          <t>It's complicated because the direct style and the polite style are mixed.</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>It seems like there are many similar endings in the latter half, which makes me think it might be AI-like.</t>
+          <t>I think it seems a lot like AI with many similar sentence endings in the second half.</t>
         </is>
       </c>
     </row>
@@ -6893,35 +6888,35 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>That's right, isn't it?</t>
+          <t>Right?</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>It wouldn't be surprising if 80% of it were true, though.</t>
+          <t>It doesn't seem strange to say 80%, though.</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>"I'll go with that level."</t>
+          <t>I'll go with that.</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>"The ます form feels more unnatural, doesn't it?"</t>
+          <t>It's more unnatural in the polite form, isn't it?</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Likewise.</t>
+          <t>Same here.</t>
         </is>
       </c>
     </row>
@@ -6949,49 +6944,49 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Hello.</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>Hello.</t>
+          <t>Hello</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>How old did you turn?</t>
+          <t>How many did you make?</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Changed it to 55 percent.</t>
+          <t>I changed it to 55 percent.</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>How about you?</t>
+          <t>And you?</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>I am 15.</t>
+          <t>I'm 15.</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>It is 13.</t>
+          <t>It's 13.</t>
         </is>
       </c>
     </row>
@@ -7005,21 +7000,21 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>This is crazy (lol)</t>
+          <t>Oh no (LOL)</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>I set it to 12.</t>
+          <t>Changed to 12.</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>It gives the impression that there might be relatively little AI.</t>
+          <t>I get the impression that there seems to be relatively little AI.</t>
         </is>
       </c>
     </row>
@@ -7033,7 +7028,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>It's quite different lol</t>
+          <t>Quite different haha</t>
         </is>
       </c>
     </row>
@@ -7047,35 +7042,35 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>I think the comment section is AI.</t>
+          <t>Thinking that the comment part is by Ai</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Certainly.</t>
+          <t>Certainly</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>The flow of the surrounding sentences might be unnatural.</t>
+          <t>The flow of the sentences before and after seems unnatural.</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>If you look at the whole thing, the situation changes.</t>
+          <t>The flow changes when you look at the whole thing.</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>From the third line, it switches to a polite form, and from that point on, I felt it seemed like AI.</t>
+          <t>From the third line, the text switches to a polite form, and everything after that felt like it was AI-generated.</t>
         </is>
       </c>
     </row>
